--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438273.7138020784</v>
+        <v>440213.7936718613</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.278659208</v>
+        <v>925407.2786592087</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17533693.53488379</v>
+        <v>17533693.5348838</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5907281.696097657</v>
+        <v>5907281.696097655</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.43010407512099</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.36486963835937</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>62.86838751899009</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>10.38017012637139</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>35.70559250379693</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>25.15457984420474</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>35.70559250379693</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>174.0731454704993</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.15457984420474</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.7055925037969</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>173.3911476697823</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,67 +1615,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>36.36486963835926</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>99.15242676576018</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S17" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U17" t="n">
+        <v>219.4759005688517</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I17" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>86.50354346547167</v>
@@ -1980,10 +1982,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>180.7782379014808</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>59.33202238395851</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D20" t="n">
-        <v>99.73835480560622</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>274.2838073416025</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="G20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>71.61989343149855</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.01050712761563</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
@@ -2214,16 +2216,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.4777635765444</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>58.51163626885506</v>
       </c>
       <c r="Y23" t="n">
-        <v>109.8489596931843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>31.04131960262142</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>84.91291243670788</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.5891775064833</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>44.75502769643857</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>61.75036928347899</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>35.0649486483816</v>
       </c>
       <c r="C29" t="n">
         <v>274.2838073416025</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>17.96478317550041</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="30">
@@ -2871,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.8075205009168585</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.311291491310716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>35.7055925037969</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>57.05494165065839</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>49.5753685137807</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3208,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.29987199599611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3281,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>150.397767816226</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>58.90715817202093</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3395,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>108.6461907720114</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>13.5923155661653</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>173.8630887158465</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>125.9059726800905</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>99.26967762178322</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C41" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>111.3996189472595</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>224.6571770672012</v>
@@ -3879,7 +3881,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>145.8355658494302</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C44" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>274.2838073416025</v>
+        <v>99.07907767104376</v>
       </c>
       <c r="E44" t="n">
         <v>274.2838073416025</v>
@@ -3992,58 +3994,58 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>60.94288463111097</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4122,7 +4124,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="46">
@@ -4177,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9427045873282</v>
+        <v>783.348686962408</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I2" t="n">
         <v>21.9427045873282</v>
@@ -4331,16 +4333,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
         <v>984.9899813536997</v>
@@ -4358,22 +4360,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>340.8456454123015</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.79129456219789</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>724.3642424684999</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C3" t="n">
-        <v>724.3642424684999</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D3" t="n">
         <v>660.8608207321463</v>
@@ -4410,19 +4412,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>29.3360154338131</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>300.8769847019996</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>572.4179539701861</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4452,7 +4454,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y3" t="n">
-        <v>891.4067935900604</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4485,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>47.35137109662591</v>
       </c>
       <c r="J4" t="n">
         <v>36.86635076695784</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C5" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D5" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F5" t="n">
-        <v>21.9427045873282</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4571,16 +4573,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4589,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X5" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M6" t="n">
-        <v>440.1189437601505</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N6" t="n">
-        <v>711.659913028337</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O6" t="n">
         <v>817.386591515115</v>
@@ -4720,10 +4722,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>47.35137109662591</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D8" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E8" t="n">
-        <v>1061.06897431207</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F8" t="n">
         <v>784.014623461966</v>
@@ -4805,19 +4807,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4847,7 +4849,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4890,13 +4892,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>416.655578933882</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P9" t="n">
         <v>1015.957061350112</v>
@@ -4905,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>47.35137109662591</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4981,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I11" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
@@ -5063,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S11" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T11" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U11" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X11" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C12" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K12" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L12" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M12" t="n">
-        <v>541.5612782974326</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N12" t="n">
-        <v>813.1022475656191</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O12" t="n">
-        <v>1080.98186654294</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T12" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U12" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V12" t="n">
-        <v>1097.13522936641</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W12" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X12" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y12" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5218,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E14" t="n">
-        <v>1060.403037812512</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F14" t="n">
-        <v>783.348686962408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5315,13 +5317,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W14" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X14" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y14" t="n">
-        <v>1097.13522936641</v>
+        <v>265.9721768160992</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.9427045873282</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D15" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E15" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F15" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G15" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H15" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5361,16 +5363,16 @@
         <v>29.3360154338131</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4136198757311</v>
+        <v>274.3046529787421</v>
       </c>
       <c r="M15" t="n">
-        <v>548.9545891439176</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N15" t="n">
-        <v>748.0774423727912</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O15" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P15" t="n">
         <v>1015.957061350112</v>
@@ -5379,28 +5381,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V15" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X15" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5458,28 +5460,28 @@
         <v>122.096671017389</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C17" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D17" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.06897431207</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F17" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G17" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
@@ -5537,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H18" t="n">
         <v>109.3200212191178</v>
@@ -5595,22 +5597,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>277.9660032696079</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N18" t="n">
-        <v>549.5069725377944</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O18" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5628,16 +5630,16 @@
         <v>403.5026004348891</v>
       </c>
       <c r="V18" t="n">
-        <v>220.8983197263226</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="X18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="Y18" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5706,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
         <v>21.9427045873282</v>
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.8515700725947</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C20" t="n">
-        <v>953.8515700725947</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D20" t="n">
-        <v>853.1057571376389</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E20" t="n">
-        <v>576.0514062875353</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F20" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G20" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K20" t="n">
         <v>143.241092649432</v>
@@ -5774,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>316.9494156097688</v>
+        <v>267.0391463639944</v>
       </c>
       <c r="C21" t="n">
-        <v>316.9494156097688</v>
+        <v>94.28603128581159</v>
       </c>
       <c r="D21" t="n">
-        <v>316.9494156097688</v>
+        <v>94.28603128581159</v>
       </c>
       <c r="E21" t="n">
-        <v>159.3398866126235</v>
+        <v>94.28603128581159</v>
       </c>
       <c r="F21" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
         <v>21.9427045873282</v>
@@ -5829,16 +5831,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>21.9427045873282</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>277.9660032696079</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N21" t="n">
         <v>549.5069725377944</v>
@@ -5853,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1081.973100954677</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>911.3048040802887</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T21" t="n">
-        <v>710.9184082133506</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U21" t="n">
-        <v>483.9919667313292</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V21" t="n">
-        <v>483.9919667313292</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W21" t="n">
-        <v>483.9919667313292</v>
+        <v>473.5660449584169</v>
       </c>
       <c r="X21" t="n">
-        <v>483.9919667313292</v>
+        <v>267.0391463639944</v>
       </c>
       <c r="Y21" t="n">
-        <v>483.9919667313292</v>
+        <v>267.0391463639944</v>
       </c>
     </row>
     <row r="22">
@@ -5938,7 +5940,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U22" t="n">
         <v>21.9427045873282</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="C23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J23" t="n">
         <v>21.9427045873282</v>
@@ -5993,19 +5995,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6014,25 +6016,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S23" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>663.9735435886729</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>409.9556005820623</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V23" t="n">
-        <v>409.9556005820623</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W23" t="n">
-        <v>409.9556005820623</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="X23" t="n">
-        <v>409.9556005820623</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>506.9602726118625</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>179.5522335844735</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="C24" t="n">
-        <v>179.5522335844735</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="D24" t="n">
-        <v>179.5522335844735</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E24" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F24" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G24" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H24" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L24" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N24" t="n">
-        <v>549.5069725377944</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O24" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6093,25 +6095,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T24" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U24" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V24" t="n">
-        <v>1011.364610743473</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="W24" t="n">
-        <v>758.850119076806</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="X24" t="n">
-        <v>552.3232204823835</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.5947847060339</v>
+        <v>692.2156890176225</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M25" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N25" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R25" t="n">
-        <v>27.52046112452624</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J26" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K26" t="n">
         <v>143.241092649432</v>
@@ -6266,10 +6268,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X26" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y26" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>403.5026004348891</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="C27" t="n">
-        <v>403.5026004348891</v>
+        <v>671.8676226215605</v>
       </c>
       <c r="D27" t="n">
-        <v>403.5026004348891</v>
+        <v>524.2793159805044</v>
       </c>
       <c r="E27" t="n">
-        <v>403.5026004348891</v>
+        <v>366.6697869833591</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2955017516178</v>
+        <v>221.713996999976</v>
       </c>
       <c r="G27" t="n">
-        <v>220.8983197263226</v>
+        <v>84.31681497468071</v>
       </c>
       <c r="H27" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I27" t="n">
         <v>21.9427045873282</v>
@@ -6306,13 +6308,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>168.577974491964</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L27" t="n">
-        <v>416.655578933882</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M27" t="n">
-        <v>688.1965482020685</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N27" t="n">
         <v>829.2556103890893</v>
@@ -6327,28 +6329,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V27" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W27" t="n">
-        <v>403.5026004348891</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X27" t="n">
-        <v>403.5026004348891</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="Y27" t="n">
-        <v>403.5026004348891</v>
+        <v>844.6207376997432</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M28" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N28" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O28" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q28" t="n">
-        <v>122.096671017389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R28" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>853.7716936371969</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C29" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D29" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E29" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F29" t="n">
         <v>299.6629919369898</v>
@@ -6467,16 +6469,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6485,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1078.988983734591</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>1078.988983734591</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T29" t="n">
-        <v>853.7716936371969</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U29" t="n">
-        <v>853.7716936371969</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V29" t="n">
-        <v>853.7716936371969</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W29" t="n">
-        <v>853.7716936371969</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="X29" t="n">
-        <v>853.7716936371969</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="Y29" t="n">
-        <v>853.7716936371969</v>
+        <v>612.1364828359636</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>169.5310112283843</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="C30" t="n">
-        <v>169.5310112283843</v>
+        <v>671.8676226215605</v>
       </c>
       <c r="D30" t="n">
-        <v>21.9427045873282</v>
+        <v>524.2793159805044</v>
       </c>
       <c r="E30" t="n">
-        <v>21.9427045873282</v>
+        <v>366.6697869833591</v>
       </c>
       <c r="F30" t="n">
-        <v>21.9427045873282</v>
+        <v>221.713996999976</v>
       </c>
       <c r="G30" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H30" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>38.09606741079833</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>286.1736718527163</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>557.7146411209028</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N30" t="n">
-        <v>829.2556103890893</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O30" t="n">
         <v>1097.13522936641</v>
@@ -6573,19 +6575,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>870.2087878843885</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V30" t="n">
-        <v>635.9575444099894</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W30" t="n">
-        <v>383.4430527433227</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X30" t="n">
-        <v>176.9161541489002</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="Y30" t="n">
-        <v>169.5310112283843</v>
+        <v>844.6207376997432</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W31" t="n">
         <v>916.4148994253914</v>
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C32" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D32" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E32" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F32" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G32" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H32" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I32" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6737,13 +6739,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X32" t="n">
         <v>820.0808785163064</v>
       </c>
       <c r="Y32" t="n">
-        <v>543.0265276662028</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>726.0805366250836</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C33" t="n">
-        <v>553.3274215469007</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>553.3274215469007</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
@@ -6780,22 +6782,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M33" t="n">
-        <v>548.9545891439176</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N33" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O33" t="n">
-        <v>1088.375177389425</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6813,16 +6815,16 @@
         <v>726.0805366250836</v>
       </c>
       <c r="V33" t="n">
-        <v>726.0805366250836</v>
+        <v>491.8292931506845</v>
       </c>
       <c r="W33" t="n">
-        <v>726.0805366250836</v>
+        <v>491.8292931506845</v>
       </c>
       <c r="X33" t="n">
-        <v>726.0805366250836</v>
+        <v>285.302394556262</v>
       </c>
       <c r="Y33" t="n">
-        <v>726.0805366250836</v>
+        <v>79.57395877991243</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>1021.074752602777</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.9427045873282</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134284</v>
@@ -6962,25 +6964,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T35" t="n">
-        <v>853.1057571376389</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U35" t="n">
-        <v>853.1057571376389</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V35" t="n">
-        <v>853.1057571376389</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W35" t="n">
-        <v>576.0514062875353</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X35" t="n">
-        <v>576.0514062875353</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.9970554374318</v>
+        <v>451.5799291250968</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>721.0718107414129</v>
+        <v>401.7863062783055</v>
       </c>
       <c r="C36" t="n">
-        <v>721.0718107414129</v>
+        <v>229.0331912001226</v>
       </c>
       <c r="D36" t="n">
-        <v>573.4835041003568</v>
+        <v>81.44488455906651</v>
       </c>
       <c r="E36" t="n">
-        <v>415.8739751032115</v>
+        <v>81.44488455906651</v>
       </c>
       <c r="F36" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
         <v>21.9427045873282</v>
@@ -7014,25 +7016,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O36" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7041,25 +7043,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S36" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T36" t="n">
-        <v>721.0718107414129</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U36" t="n">
-        <v>721.0718107414129</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V36" t="n">
-        <v>721.0718107414129</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="W36" t="n">
-        <v>721.0718107414129</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="X36" t="n">
-        <v>721.0718107414129</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="Y36" t="n">
-        <v>721.0718107414129</v>
+        <v>568.8288573998659</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.096671017389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H38" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I38" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
@@ -7178,19 +7180,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
@@ -7199,25 +7201,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S38" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T38" t="n">
-        <v>520.6898842948577</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U38" t="n">
-        <v>506.9602726118625</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="V38" t="n">
-        <v>506.9602726118625</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="W38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>503.251291735001</v>
+        <v>332.0930016908063</v>
       </c>
       <c r="C39" t="n">
-        <v>503.251291735001</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="D39" t="n">
-        <v>503.251291735001</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="E39" t="n">
-        <v>503.251291735001</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2955017516178</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
@@ -7260,7 +7262,7 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>541.5612782974326</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N39" t="n">
         <v>549.5069725377944</v>
@@ -7275,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V39" t="n">
-        <v>503.251291735001</v>
+        <v>996.8628277282451</v>
       </c>
       <c r="W39" t="n">
-        <v>503.251291735001</v>
+        <v>744.3483360615784</v>
       </c>
       <c r="X39" t="n">
-        <v>503.251291735001</v>
+        <v>537.8214374671559</v>
       </c>
       <c r="Y39" t="n">
-        <v>503.251291735001</v>
+        <v>332.0930016908063</v>
       </c>
     </row>
     <row r="40">
@@ -7357,16 +7359,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W40" t="n">
         <v>916.4148994253914</v>
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C41" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P41" t="n">
         <v>1093.116282134284</v>
@@ -7448,13 +7450,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W41" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="C42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="D42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="E42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="F42" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G42" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H42" t="n">
         <v>21.9427045873282</v>
@@ -7491,49 +7493,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6851405540922</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O42" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>403.5026004348891</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V42" t="n">
-        <v>169.25135696049</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
         <v>21.9427045873282</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1097.13522936641</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C44" t="n">
-        <v>853.1057571376389</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D44" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G44" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7652,46 +7654,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y44" t="n">
-        <v>1097.13522936641</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>342.2841263065671</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>169.5310112283843</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
         <v>21.9427045873282</v>
@@ -7758,19 +7760,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>1035.576760042055</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V45" t="n">
-        <v>801.3255165676563</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W45" t="n">
-        <v>548.8110249009897</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X45" t="n">
-        <v>342.2841263065671</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y45" t="n">
-        <v>342.2841263065671</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7825,22 +7827,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7979,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -8058,10 +8060,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
         <v>412.8644904155703</v>
@@ -8070,10 +8072,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>386.4744065605342</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8219,7 +8221,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M5" t="n">
         <v>467.4940748325458</v>
@@ -8234,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8292,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
@@ -8307,7 +8309,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>245.8259630674526</v>
+        <v>253.2939538214777</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
@@ -8453,7 +8455,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
         <v>434.3676631324684</v>
@@ -8538,16 +8540,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>262.2514961538888</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
         <v>218.4803792452831</v>
@@ -8766,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,16 +8780,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>402.3419766228525</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>146.9415753334873</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8945,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9009,19 +9011,19 @@
         <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>382.5335885125784</v>
       </c>
       <c r="M15" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N15" t="n">
-        <v>329.1923644619304</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9243,25 +9245,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>139.1386460980858</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>351.5244810902469</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,19 +9479,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>397.1900756823312</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9714,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,16 +9728,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>136.0841230593931</v>
+        <v>340.5513120381636</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9954,7 +9956,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>143.2439403504901</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9963,7 +9965,7 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>270.5420704802609</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10115,7 +10117,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10188,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>150.7119311045153</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10203,7 +10205,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P30" t="n">
         <v>130.625047228972</v>
@@ -10349,7 +10351,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10367,7 +10369,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10428,25 +10430,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10662,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>134.395403</v>
@@ -10674,7 +10676,7 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>210.6142818167799</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10683,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10908,10 +10910,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>146.606636852111</v>
       </c>
       <c r="N39" t="n">
-        <v>136.0841230593931</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11060,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11139,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11148,16 +11150,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
-        <v>210.6142818167799</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O42" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.286305916274</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -22553,19 +22555,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>346.7531661169281</v>
       </c>
       <c r="F2" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -22598,10 +22600,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22610,10 +22612,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>83.24403605565547</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>78.45867480140755</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22793,19 +22795,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>407.2938634805408</v>
+        <v>371.5882709767439</v>
       </c>
       <c r="G5" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
@@ -22850,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22960,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>63.6842650835742</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389384</v>
+        <v>371.5882709767439</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
@@ -23087,7 +23089,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>57.83558556915582</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -23166,7 +23168,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>63.6842650835742</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23273,13 +23275,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>302.4383108843565</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -23440,7 +23442,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>9.252430746007292</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23501,19 +23503,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>346.7531661169282</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23555,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23677,7 +23679,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.23872090402212</v>
+        <v>89.01313062185548</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23738,22 +23740,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23798,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="18">
@@ -23826,7 +23828,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>51.13049313817427</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>190.6573243660415</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23944,10 +23946,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D20" t="n">
-        <v>256.8663779489922</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E20" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>133.0100561389384</v>
+        <v>165.7046859740575</v>
       </c>
       <c r="G20" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>71.88633865205074</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
         <v>110.4625155221328</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>79.68447263347558</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24178,10 +24180,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U22" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24221,13 +24223,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>312.3499628623143</v>
       </c>
       <c r="Y23" t="n">
-        <v>276.8381120580515</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>115.0711039720241</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
@@ -24342,16 +24344,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>146.9958186029472</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -24409,10 +24411,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>216.8354279895965</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24424,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24443,22 +24445,22 @@
         <v>109.4326026497926</v>
       </c>
       <c r="C26" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G26" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24506,10 +24508,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24524,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>98.75120438711073</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>48.71214623865379</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -24643,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
         <v>222.3574069614225</v>
@@ -24655,7 +24657,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494558</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>348.6514613430135</v>
       </c>
       <c r="C29" t="n">
         <v>92.70128833734015</v>
@@ -24689,7 +24691,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>123.8860395253767</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
@@ -24746,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="30">
@@ -24759,25 +24761,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>135.2156897041255</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,19 +24815,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.3598599272753</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>74.02322442533077</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24923,22 +24925,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>302.4383108843565</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X32" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>108.3171839596864</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>106.4580651933931</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,16 +25055,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25096,10 +25098,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.4488018717721</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25169,13 +25171,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>187.7461355719274</v>
       </c>
       <c r="I35" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>106.126596917933</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
@@ -25220,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>84.59907391152836</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
         <v>86.50354346547167</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>89.73634113625732</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25299,7 +25301,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
         <v>222.3574069614225</v>
@@ -25372,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25406,13 +25408,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H38" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>237.8854480103791</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>176.6670282847081</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -25470,7 +25472,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -25479,16 +25481,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>98.75120438711075</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>132.6390534178719</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25599,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S40" t="n">
-        <v>43.44428031981414</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T40" t="n">
         <v>228.3324659915077</v>
@@ -25609,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C41" t="n">
         <v>92.70128833734015</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>115.6748323826775</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25716,13 +25718,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>32.10661313628984</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>86.50354346547167</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>104.1537809005699</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -25840,10 +25842,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V43" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C44" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>82.3209254129959</v>
+        <v>257.5256550835546</v>
       </c>
       <c r="E44" t="n">
         <v>108.834228413685</v>
@@ -25880,13 +25882,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -25931,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25944,10 +25946,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -25998,7 +26000,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>163.7142924360903</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="46">
@@ -26065,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>123.2049801956623</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
         <v>228.3324659915077</v>
@@ -26083,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95247.41811329289</v>
+        <v>95247.41811329291</v>
       </c>
       <c r="C2" t="n">
-        <v>95247.41811329291</v>
+        <v>95247.41811329292</v>
       </c>
       <c r="D2" t="n">
-        <v>95247.41811329292</v>
+        <v>95247.41811329294</v>
       </c>
       <c r="E2" t="n">
-        <v>95247.41811329291</v>
+        <v>95247.41811329294</v>
       </c>
       <c r="F2" t="n">
         <v>95247.41811329295</v>
       </c>
       <c r="G2" t="n">
+        <v>95247.41811329292</v>
+      </c>
+      <c r="H2" t="n">
+        <v>95247.41811329292</v>
+      </c>
+      <c r="I2" t="n">
+        <v>95247.41811329291</v>
+      </c>
+      <c r="J2" t="n">
+        <v>95247.41811329297</v>
+      </c>
+      <c r="K2" t="n">
+        <v>95247.41811329291</v>
+      </c>
+      <c r="L2" t="n">
         <v>95247.41811329294</v>
       </c>
-      <c r="H2" t="n">
-        <v>95247.41811329288</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>95247.41811329294</v>
+      </c>
+      <c r="N2" t="n">
+        <v>95247.41811329289</v>
+      </c>
+      <c r="O2" t="n">
         <v>95247.41811329292</v>
       </c>
-      <c r="J2" t="n">
-        <v>95247.41811329294</v>
-      </c>
-      <c r="K2" t="n">
-        <v>95247.41811329294</v>
-      </c>
-      <c r="L2" t="n">
-        <v>95247.41811329295</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>95247.41811329292</v>
-      </c>
-      <c r="N2" t="n">
-        <v>95247.41811329292</v>
-      </c>
-      <c r="O2" t="n">
-        <v>95247.41811329295</v>
-      </c>
-      <c r="P2" t="n">
-        <v>95247.41811329294</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26436,7 +26438,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="I4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="J4" t="n">
         <v>205.3193574873218</v>
@@ -26522,46 +26524,46 @@
         <v>-47180.7690983037</v>
       </c>
       <c r="C6" t="n">
-        <v>44738.04326943617</v>
+        <v>44738.04326943618</v>
       </c>
       <c r="D6" t="n">
-        <v>44738.04326943618</v>
+        <v>44738.0432694362</v>
       </c>
       <c r="E6" t="n">
-        <v>78365.64326943617</v>
+        <v>78365.6432694362</v>
       </c>
       <c r="F6" t="n">
         <v>78365.6432694362</v>
       </c>
       <c r="G6" t="n">
-        <v>78365.6432694362</v>
+        <v>78365.64326943617</v>
       </c>
       <c r="H6" t="n">
-        <v>78365.64326943614</v>
+        <v>78365.64326943617</v>
       </c>
       <c r="I6" t="n">
         <v>78365.64326943617</v>
       </c>
       <c r="J6" t="n">
-        <v>6600.930781349947</v>
+        <v>6600.930781349976</v>
       </c>
       <c r="K6" t="n">
-        <v>78365.6432694362</v>
+        <v>78365.64326943617</v>
       </c>
       <c r="L6" t="n">
         <v>78365.6432694362</v>
       </c>
       <c r="M6" t="n">
+        <v>78365.6432694362</v>
+      </c>
+      <c r="N6" t="n">
+        <v>78365.64326943614</v>
+      </c>
+      <c r="O6" t="n">
         <v>78365.64326943617</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>78365.64326943617</v>
-      </c>
-      <c r="O6" t="n">
-        <v>78365.6432694362</v>
-      </c>
-      <c r="P6" t="n">
-        <v>78365.6432694362</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34711,7 +34713,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P2" t="n">
         <v>109.2184856369541</v>
@@ -34778,10 +34780,10 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
@@ -34790,10 +34792,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>247.4430682272009</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -34939,7 +34941,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M5" t="n">
         <v>242.9064974359549</v>
@@ -34954,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
@@ -35027,7 +35029,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>106.7946247341192</v>
+        <v>114.2626154881444</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
         <v>204.4954085367308</v>
@@ -35258,16 +35260,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>81.99814951141209</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
         <v>250.5834388302202</v>
@@ -35498,16 +35500,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2838073416025</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O12" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>16.31652810451531</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>250.5834388302202</v>
+        <v>247.443068227201</v>
       </c>
       <c r="M15" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>201.1341951806804</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
         <v>81.99814951141209</v>
@@ -35963,25 +35965,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5579630241179461</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O18" t="n">
-        <v>270.5854737144654</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="P18" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>258.6093926083634</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
@@ -36446,16 +36448,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>8.025953778143149</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="O24" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>140.6484434930818</v>
+        <v>8.84853735049013</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
@@ -36683,7 +36685,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>142.4839011990109</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36835,7 +36837,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M29" t="n">
         <v>242.9064974359549</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>16.31652810451528</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
@@ -36923,7 +36925,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L32" t="n">
         <v>204.4954085367308</v>
@@ -37087,7 +37089,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L35" t="n">
         <v>204.4954085367308</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>82.55611253552989</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
@@ -37403,7 +37405,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
+        <v>8.025953778143093</v>
+      </c>
+      <c r="N39" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N39" t="n">
-        <v>8.025953778143149</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L41" t="n">
         <v>204.4954085367308</v>
@@ -37798,7 +37800,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
@@ -37868,16 +37870,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>82.55611253552989</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O42" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440213.7936718613</v>
+        <v>342382.6012758172</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592087</v>
+        <v>925407.2786592081</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17533693.5348838</v>
+        <v>17533693.53488379</v>
       </c>
     </row>
     <row r="9">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.36486963835937</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="W2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="X2" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>89.70050914184344</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.38017012637139</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F5" t="n">
-        <v>35.70559250379693</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>35.72422578294405</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -1031,13 +1031,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>145.8355658494302</v>
+        <v>165.6480568869995</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
-        <v>35.70559250379693</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>174.0731454704993</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>154.2141932558485</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.43010407512099</v>
+      </c>
+      <c r="G11" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>35.7055925037969</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,10 +1499,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>224.6571770672012</v>
@@ -1511,13 +1511,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>145.8355658494302</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="13">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>18.62406031006297</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>274.2838073416025</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.669287922421693</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.37801704792682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>205.8649517235392</v>
@@ -1900,19 +1900,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>219.4759005688517</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.2838073416025</v>
+        <v>87.04291592812621</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>224.6571770672012</v>
@@ -1985,13 +1985,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>59.33202238395851</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>59.51921349475726</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>274.2838073416025</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>35.72422578294405</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>71.61989343149855</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2228,7 +2228,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>17.27905463269151</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>220.1165444242669</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>58.51163626885506</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>31.04131960262142</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.9237307687901</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>173.8630887158465</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="F26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>61.75036928347899</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>79.71476095348008</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35.0649486483816</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.2838073416025</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8075205009168585</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>178.9131266416084</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,70 +3031,70 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H32" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>151.0570449507884</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57.05494165065839</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>42.96119954382336</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3271,25 +3271,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>168.1572104236695</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H35" t="n">
-        <v>150.397767816226</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>58.90715817202093</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W38" t="n">
-        <v>173.8630887158465</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>99.26967762178322</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>137.6742641061919</v>
       </c>
     </row>
     <row r="40">
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="V41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D41" t="n">
-        <v>240.9299003719209</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>111.3996189472595</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>57.05494165065842</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>99.07907767104376</v>
-      </c>
-      <c r="E44" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.1024154016047</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4124,7 +4124,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.4237150659563</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C2" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D2" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E2" t="n">
-        <v>783.348686962408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
         <v>21.9427045873282</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4366,16 +4366,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>981.2022424513852</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C3" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>688.1965482020685</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N3" t="n">
-        <v>959.7375174702549</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1006.528654475659</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>835.8603576012707</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>635.4739617343326</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>635.4739617343326</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>401.2227182599335</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>401.2227182599335</v>
       </c>
       <c r="X3" t="n">
-        <v>1097.13522936641</v>
+        <v>194.695819665511</v>
       </c>
       <c r="Y3" t="n">
-        <v>1097.13522936641</v>
+        <v>194.695819665511</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4521,19 +4521,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C5" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D5" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>784.014623461966</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4573,7 +4573,7 @@
         <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
         <v>586.1689795623907</v>
@@ -4594,25 +4594,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F6" t="n">
         <v>21.9427045873282</v>
@@ -4646,22 +4646,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1846636454791</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>432.7256329136656</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
-        <v>704.266602181852</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P6" t="n">
         <v>1015.957061350112</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169106</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U6" t="n">
-        <v>403.5026004348891</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V6" t="n">
-        <v>169.25135696049</v>
+        <v>491.8292931506845</v>
       </c>
       <c r="W6" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="X6" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>324.5080235678566</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
         <v>21.9427045873282</v>
@@ -4764,13 +4764,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C8" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D8" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E8" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F8" t="n">
-        <v>784.014623461966</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G8" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4837,19 +4837,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y8" t="n">
-        <v>820.0808785163064</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="9">
@@ -4892,37 +4892,37 @@
         <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N9" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V9" t="n">
-        <v>227.6711403636777</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W9" t="n">
-        <v>227.6711403636777</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X9" t="n">
         <v>227.6711403636777</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4995,19 +4995,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>265.9721768160992</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="C11" t="n">
-        <v>265.9721768160992</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="D11" t="n">
-        <v>265.9721768160992</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="E11" t="n">
-        <v>265.9721768160992</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="F11" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G11" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
         <v>21.9427045873282</v>
@@ -5071,22 +5071,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T11" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U11" t="n">
-        <v>1097.13522936641</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V11" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W11" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="X11" t="n">
-        <v>820.0808785163064</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="Y11" t="n">
-        <v>543.0265276662028</v>
+        <v>340.8456454123015</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>168.577974491964</v>
       </c>
       <c r="L12" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M12" t="n">
-        <v>688.1965482020685</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N12" t="n">
-        <v>817.386591515115</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O12" t="n">
         <v>817.386591515115</v>
@@ -5147,22 +5147,22 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169106</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U12" t="n">
-        <v>403.5026004348891</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V12" t="n">
-        <v>169.25135696049</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W12" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X12" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y12" t="n">
         <v>21.9427045873282</v>
@@ -5220,13 +5220,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
         <v>21.9427045873282</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D14" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="F14" t="n">
-        <v>21.9427045873282</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="G14" t="n">
-        <v>21.9427045873282</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="H14" t="n">
-        <v>21.9427045873282</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5308,22 +5308,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T14" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U14" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V14" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W14" t="n">
-        <v>820.0808785163064</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X14" t="n">
-        <v>543.0265276662028</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="Y14" t="n">
-        <v>265.9721768160992</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>981.2022424513852</v>
+        <v>332.0930016908063</v>
       </c>
       <c r="C15" t="n">
-        <v>808.4491273732024</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="D15" t="n">
-        <v>660.8608207321463</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="E15" t="n">
-        <v>503.251291735001</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2955017516178</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
@@ -5360,49 +5360,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>274.3046529787421</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M15" t="n">
-        <v>545.8456222469285</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N15" t="n">
-        <v>817.386591515115</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O15" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P15" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U15" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V15" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W15" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="X15" t="n">
-        <v>1097.13522936641</v>
+        <v>333.7791511073939</v>
       </c>
       <c r="Y15" t="n">
-        <v>1097.13522936641</v>
+        <v>332.0930016908063</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5457,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5539,25 +5539,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>745.907174392252</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T17" t="n">
-        <v>520.6898842948577</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U17" t="n">
-        <v>298.9970554374318</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V17" t="n">
-        <v>298.9970554374318</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="W17" t="n">
-        <v>298.9970554374318</v>
+        <v>386.9191927385693</v>
       </c>
       <c r="X17" t="n">
-        <v>298.9970554374318</v>
+        <v>109.8648418884658</v>
       </c>
       <c r="Y17" t="n">
         <v>21.9427045873282</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K18" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L18" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M18" t="n">
-        <v>416.655578933882</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N18" t="n">
-        <v>688.1965482020685</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O18" t="n">
         <v>898.564759531413</v>
@@ -5621,25 +5621,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169106</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U18" t="n">
-        <v>403.5026004348891</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V18" t="n">
-        <v>169.25135696049</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W18" t="n">
-        <v>109.3200212191178</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X18" t="n">
-        <v>109.3200212191178</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D19" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="E19" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F19" t="n">
         <v>21.9427045873282</v>
@@ -5709,16 +5709,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>820.0808785163064</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="C20" t="n">
-        <v>543.0265276662028</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="D20" t="n">
-        <v>265.9721768160992</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="E20" t="n">
-        <v>265.9721768160992</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="F20" t="n">
+        <v>335.0821319858601</v>
+      </c>
+      <c r="G20" t="n">
+        <v>58.02778113575653</v>
+      </c>
+      <c r="H20" t="n">
+        <v>58.02778113575653</v>
+      </c>
+      <c r="I20" t="n">
         <v>21.9427045873282</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>21.9427045873282</v>
-      </c>
-      <c r="H20" t="n">
-        <v>21.94270458732819</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21.94270458732819</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21.94270458732819</v>
       </c>
       <c r="K20" t="n">
         <v>143.241092649432</v>
@@ -5779,25 +5779,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.13522936641</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.13522936641</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="X20" t="n">
-        <v>1097.13522936641</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097.13522936641</v>
+        <v>612.1364828359636</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>267.0391463639944</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>94.28603128581159</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>94.28603128581159</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>94.28603128581159</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
         <v>21.9427045873282</v>
@@ -5840,13 +5840,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>549.5069725377944</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N21" t="n">
-        <v>549.5069725377944</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O21" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P21" t="n">
         <v>1015.957061350112</v>
@@ -5855,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S21" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T21" t="n">
-        <v>726.0805366250836</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U21" t="n">
-        <v>726.0805366250836</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V21" t="n">
-        <v>726.0805366250836</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W21" t="n">
-        <v>473.5660449584169</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X21" t="n">
-        <v>267.0391463639944</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y21" t="n">
-        <v>267.0391463639944</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="C22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="D22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="E22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="F22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="G22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="H22" t="n">
         <v>21.9427045873282</v>
@@ -5940,22 +5940,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="X22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.9602726118625</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="C23" t="n">
-        <v>506.9602726118625</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="D23" t="n">
-        <v>506.9602726118625</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="E23" t="n">
-        <v>506.9602726118625</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F23" t="n">
-        <v>506.9602726118625</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G23" t="n">
-        <v>506.9602726118625</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H23" t="n">
-        <v>229.9059217617589</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I23" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J23" t="n">
         <v>21.9427045873282</v>
@@ -5995,46 +5995,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R23" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S23" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U23" t="n">
-        <v>843.1172863597994</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V23" t="n">
-        <v>843.1172863597994</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W23" t="n">
-        <v>566.0629355096959</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X23" t="n">
-        <v>506.9602726118625</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.9602726118625</v>
+        <v>728.6342799752003</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>692.2156890176225</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>692.2156890176225</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
@@ -6077,16 +6077,16 @@
         <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>688.1965482020685</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N24" t="n">
-        <v>898.564759531413</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O24" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6101,19 +6101,19 @@
         <v>926.4669324920217</v>
       </c>
       <c r="U24" t="n">
-        <v>926.4669324920217</v>
+        <v>699.5404910100002</v>
       </c>
       <c r="V24" t="n">
-        <v>692.2156890176225</v>
+        <v>465.2892475356011</v>
       </c>
       <c r="W24" t="n">
-        <v>692.2156890176225</v>
+        <v>212.7747558689344</v>
       </c>
       <c r="X24" t="n">
-        <v>692.2156890176225</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y24" t="n">
-        <v>692.2156890176225</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M25" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N25" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O25" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>820.0808785163064</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="C26" t="n">
-        <v>820.0808785163064</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="D26" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E26" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F26" t="n">
         <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H26" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I26" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J26" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K26" t="n">
         <v>143.241092649432</v>
@@ -6250,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="W26" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="X26" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="Y26" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>844.6207376997432</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>671.8676226215605</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>524.2793159805044</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
-        <v>366.6697869833591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F27" t="n">
-        <v>221.713996999976</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G27" t="n">
-        <v>84.31681497468071</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H27" t="n">
         <v>21.9427045873282</v>
@@ -6305,19 +6305,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
-        <v>557.7146411209028</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N27" t="n">
-        <v>829.2556103890893</v>
+        <v>952.3442066237701</v>
       </c>
       <c r="O27" t="n">
         <v>1097.13522936641</v>
@@ -6329,28 +6329,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U27" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V27" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W27" t="n">
-        <v>844.6207376997432</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X27" t="n">
-        <v>844.6207376997432</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y27" t="n">
-        <v>844.6207376997432</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M28" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O28" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>576.7173427870933</v>
       </c>
       <c r="C29" t="n">
-        <v>299.6629919369898</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D29" t="n">
-        <v>299.6629919369898</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E29" t="n">
-        <v>299.6629919369898</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F29" t="n">
-        <v>299.6629919369898</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="G29" t="n">
         <v>299.6629919369898</v>
@@ -6469,16 +6469,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6490,25 +6490,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>889.1908336860672</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V29" t="n">
-        <v>889.1908336860672</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="W29" t="n">
-        <v>889.1908336860672</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X29" t="n">
-        <v>889.1908336860672</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y29" t="n">
-        <v>612.1364828359636</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>844.6207376997432</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>671.8676226215605</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>524.2793159805044</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>366.6697869833591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
-        <v>221.713996999976</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
@@ -6551,13 +6551,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>688.1965482020685</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N30" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O30" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6566,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V30" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W30" t="n">
-        <v>844.6207376997432</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X30" t="n">
-        <v>844.6207376997432</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.6207376997432</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253914</v>
+        <v>169.5780797487469</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C32" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D32" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E32" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F32" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G32" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6703,19 +6703,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6724,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="W32" t="n">
-        <v>820.0808785163064</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X32" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="E33" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="F33" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G33" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H33" t="n">
         <v>21.9427045873282</v>
@@ -6785,10 +6785,10 @@
         <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M33" t="n">
-        <v>549.5069725377944</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N33" t="n">
         <v>549.5069725377944</v>
@@ -6806,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>726.0805366250836</v>
+        <v>1053.740078312043</v>
       </c>
       <c r="U33" t="n">
-        <v>726.0805366250836</v>
+        <v>826.8136368300213</v>
       </c>
       <c r="V33" t="n">
-        <v>491.8292931506845</v>
+        <v>592.5623933556222</v>
       </c>
       <c r="W33" t="n">
-        <v>491.8292931506845</v>
+        <v>340.0479016889556</v>
       </c>
       <c r="X33" t="n">
-        <v>285.302394556262</v>
+        <v>133.521003094533</v>
       </c>
       <c r="Y33" t="n">
-        <v>79.57395877991243</v>
+        <v>133.521003094533</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>451.5799291250968</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C35" t="n">
-        <v>451.5799291250968</v>
+        <v>745.907174392252</v>
       </c>
       <c r="D35" t="n">
-        <v>174.5255782749932</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E35" t="n">
-        <v>174.5255782749932</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F35" t="n">
-        <v>174.5255782749932</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G35" t="n">
-        <v>174.5255782749932</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H35" t="n">
-        <v>22.6086410868862</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I35" t="n">
-        <v>22.6086410868862</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6964,25 +6964,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6342799752003</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6342799752003</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V35" t="n">
-        <v>728.6342799752003</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W35" t="n">
-        <v>451.5799291250968</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X35" t="n">
-        <v>451.5799291250968</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y35" t="n">
-        <v>451.5799291250968</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>401.7863062783055</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
-        <v>229.0331912001226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>81.44488455906651</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
-        <v>81.44488455906651</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
         <v>21.9427045873282</v>
@@ -7016,19 +7016,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K36" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L36" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M36" t="n">
-        <v>541.5612782974326</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N36" t="n">
-        <v>549.5069725377944</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O36" t="n">
         <v>817.386591515115</v>
@@ -7040,28 +7040,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>774.5572931762155</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V36" t="n">
-        <v>774.5572931762155</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W36" t="n">
-        <v>774.5572931762155</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X36" t="n">
-        <v>774.5572931762155</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y36" t="n">
-        <v>568.8288573998659</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L37" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M37" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N37" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O37" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C38" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D38" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E38" t="n">
         <v>21.9427045873282</v>
@@ -7180,46 +7180,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>474.6163369685898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>197.5619861184862</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W38" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X38" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>332.0930016908063</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="C39" t="n">
-        <v>159.3398866126235</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="D39" t="n">
-        <v>159.3398866126235</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="E39" t="n">
-        <v>159.3398866126235</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="F39" t="n">
-        <v>159.3398866126235</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G39" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H39" t="n">
         <v>21.9427045873282</v>
@@ -7253,25 +7253,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K39" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L39" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M39" t="n">
-        <v>277.9660032696079</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N39" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O39" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P39" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
@@ -7283,22 +7283,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U39" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V39" t="n">
-        <v>996.8628277282451</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W39" t="n">
-        <v>744.3483360615784</v>
+        <v>409.983098358406</v>
       </c>
       <c r="X39" t="n">
-        <v>537.8214374671559</v>
+        <v>409.983098358406</v>
       </c>
       <c r="Y39" t="n">
-        <v>332.0930016908063</v>
+        <v>270.9181851198283</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C41" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D41" t="n">
-        <v>299.6629919369898</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E41" t="n">
-        <v>299.6629919369898</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F41" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
         <v>1093.116282134284</v>
@@ -7444,19 +7444,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U41" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X41" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y41" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
         <v>21.9427045873282</v>
@@ -7490,19 +7490,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L42" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M42" t="n">
-        <v>688.1965482020685</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N42" t="n">
-        <v>817.386591515115</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O42" t="n">
         <v>817.386591515115</v>
@@ -7517,25 +7517,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T42" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U42" t="n">
-        <v>870.2087878843885</v>
+        <v>668.4492824324993</v>
       </c>
       <c r="V42" t="n">
-        <v>635.9575444099894</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="W42" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>383.4430527433227</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E43" t="n">
-        <v>21.9427045873282</v>
+        <v>54.20381819178192</v>
       </c>
       <c r="F43" t="n">
-        <v>21.9427045873282</v>
+        <v>54.20381819178192</v>
       </c>
       <c r="G43" t="n">
         <v>21.9427045873282</v>
@@ -7602,19 +7602,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>399.7428683723875</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C44" t="n">
-        <v>399.7428683723875</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D44" t="n">
-        <v>299.6629919369898</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E44" t="n">
-        <v>22.60864108688619</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F44" t="n">
-        <v>22.60864108688619</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G44" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H44" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I44" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7654,46 +7654,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T44" t="n">
-        <v>953.8515700725947</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U44" t="n">
-        <v>953.8515700725947</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="V44" t="n">
-        <v>953.8515700725947</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="W44" t="n">
-        <v>953.8515700725947</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="X44" t="n">
-        <v>953.8515700725947</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y44" t="n">
-        <v>676.7972192224911</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>359.1441712859057</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N45" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O45" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P45" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q45" t="n">
         <v>1097.13522936641</v>
@@ -7760,16 +7760,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>635.9575444099894</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>176.9161541489002</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
         <v>21.9427045873282</v>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -8057,7 +8057,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
@@ -8069,16 +8069,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>278.010061234286</v>
       </c>
       <c r="O3" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8221,7 +8221,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
         <v>467.4940748325458</v>
@@ -8294,25 +8294,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>329.1923644619304</v>
       </c>
       <c r="O6" t="n">
-        <v>253.2939538214777</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
         <v>218.4803792452831</v>
@@ -8473,7 +8473,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8540,19 +8540,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8774,16 +8774,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>258.5531625267515</v>
+        <v>238.5511276425064</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8947,7 +8947,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9008,25 +9008,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>382.5335885125784</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155703</v>
+        <v>331.0717909466363</v>
       </c>
       <c r="N15" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9251,13 +9251,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>402.3419766228525</v>
+        <v>348.0193027921887</v>
       </c>
       <c r="O18" t="n">
-        <v>351.5244810902469</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9488,16 +9488,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>272.7740099466066</v>
+        <v>199.0664347615666</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9725,19 +9725,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>340.5513120381636</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9968,7 +9968,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
-        <v>409.6168120477987</v>
+        <v>285.2848966592321</v>
       </c>
       <c r="P27" t="n">
         <v>130.625047228972</v>
@@ -10117,7 +10117,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10199,16 +10199,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O30" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10351,7 +10351,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10369,7 +10369,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10433,13 +10433,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>272.7740099466066</v>
+        <v>249.0736414352243</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10664,22 +10664,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>269.0756763194694</v>
       </c>
       <c r="N36" t="n">
-        <v>136.0841230593931</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10901,19 +10901,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>146.606636852111</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11062,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,10 +11150,10 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
-        <v>258.5531625267515</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
         <v>134.395403</v>
@@ -11384,10 +11384,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>221.1367956094978</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>346.7531661169281</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -22606,13 +22606,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>4.994470619247778</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>78.45867480140755</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22792,22 +22792,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
-        <v>371.5882709767439</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>187.2408914134763</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22871,10 +22871,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,13 +22919,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>104.1537809005699</v>
+        <v>84.3412898630005</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -22962,10 +22962,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23029,22 +23029,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
-        <v>371.5882709767439</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>9.888586070061081</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23089,7 +23089,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>57.83558556915582</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>50.24743635262973</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -23235,7 +23235,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23269,19 +23269,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>365.8637594054198</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4383108843565</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.1537809005699</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="13">
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23506,16 +23506,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>186.600247558061</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23548,7 +23548,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.4777635765444</v>
@@ -23557,10 +23557,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>112.4032644096333</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23630,19 +23630,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>202.0018634961643</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>89.01313062185548</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23712,7 +23712,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>32.00186300769272</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y17" t="n">
-        <v>112.4032644096333</v>
+        <v>299.6441558231096</v>
       </c>
     </row>
     <row r="18">
@@ -23831,7 +23831,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>190.6573243660415</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>144.942416113721</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,13 +23895,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>116.2514612827155</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.8895889301081</v>
@@ -23949,7 +23949,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>82.3209254129959</v>
@@ -23980,16 +23980,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>165.7046859740575</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>169.50008208518</v>
       </c>
       <c r="J20" t="n">
         <v>0.6592771345624158</v>
@@ -24019,7 +24019,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>222.9651171964204</v>
@@ -24028,7 +24028,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -24050,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24059,7 +24059,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>71.88633865205074</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>136.0232102050423</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>153.7585467974036</v>
@@ -24180,7 +24180,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
@@ -24189,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>268.813522254724</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24214,7 +24214,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>163.0014913310206</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
@@ -24223,13 +24223,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>312.3499628623143</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24290,22 +24290,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>115.0711039720241</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>15.53789883968815</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -24426,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458071</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>182.7416440387519</v>
       </c>
       <c r="E26" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24524,22 +24524,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>48.71214623865379</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
         <v>86.50354346547167</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24578,19 +24578,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>144.9424161137212</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24657,7 +24657,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24666,7 +24666,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.6514613430135</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24694,7 +24694,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
         <v>63.86009604655089</v>
@@ -24730,16 +24730,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>10.54786320462352</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -24748,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.2156897041255</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24815,19 +24815,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24900,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>107.1794502458071</v>
+        <v>253.3384716556117</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24919,22 +24919,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>219.804554180381</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>108.3171839596864</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -25013,7 +25013,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>86.50354346547167</v>
@@ -25046,25 +25046,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>155.4213323644453</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -25159,25 +25159,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>82.3209254129959</v>
+        <v>188.4475223309288</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
-        <v>187.7461355719274</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
@@ -25216,7 +25216,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>84.59907391152836</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>136.0232102050423</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
@@ -25289,16 +25289,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>107.1794502458071</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25396,10 +25396,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>176.6670282847081</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>86.50354346547167</v>
@@ -25523,22 +25523,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>132.6390534178719</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>65.99688731239414</v>
       </c>
     </row>
     <row r="40">
@@ -25605,13 +25605,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>115.6748323826775</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25651,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>9.888586070061081</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25718,13 +25718,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>32.10661313628984</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
         <v>86.50354346547167</v>
@@ -25757,25 +25757,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>167.6022354165428</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>135.9510864616989</v>
       </c>
       <c r="H43" t="n">
         <v>161.6340720089168</v>
@@ -25842,7 +25842,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25864,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>257.5256550835546</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>95.37534817493972</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25933,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -26000,7 +26000,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.24743635262973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>510872.5153349348</v>
+        <v>510872.5153349349</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>510872.5153349349</v>
+        <v>510872.5153349348</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95247.41811329291</v>
+        <v>95247.41811329294</v>
       </c>
       <c r="C2" t="n">
+        <v>95247.41811329297</v>
+      </c>
+      <c r="D2" t="n">
         <v>95247.41811329292</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95247.41811329294</v>
       </c>
       <c r="E2" t="n">
         <v>95247.41811329294</v>
       </c>
       <c r="F2" t="n">
+        <v>95247.41811329294</v>
+      </c>
+      <c r="G2" t="n">
+        <v>95247.41811329294</v>
+      </c>
+      <c r="H2" t="n">
         <v>95247.41811329295</v>
-      </c>
-      <c r="G2" t="n">
-        <v>95247.41811329292</v>
-      </c>
-      <c r="H2" t="n">
-        <v>95247.41811329292</v>
       </c>
       <c r="I2" t="n">
         <v>95247.41811329291</v>
       </c>
       <c r="J2" t="n">
-        <v>95247.41811329297</v>
+        <v>95247.41811329291</v>
       </c>
       <c r="K2" t="n">
+        <v>95247.41811329294</v>
+      </c>
+      <c r="L2" t="n">
         <v>95247.41811329291</v>
-      </c>
-      <c r="L2" t="n">
-        <v>95247.41811329294</v>
       </c>
       <c r="M2" t="n">
         <v>95247.41811329294</v>
       </c>
       <c r="N2" t="n">
-        <v>95247.41811329289</v>
+        <v>95247.41811329292</v>
       </c>
       <c r="O2" t="n">
-        <v>95247.41811329292</v>
+        <v>95247.41811329295</v>
       </c>
       <c r="P2" t="n">
-        <v>95247.41811329292</v>
+        <v>95247.41811329294</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="I4" t="n">
-        <v>205.3193574873219</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="J4" t="n">
         <v>205.3193574873218</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47180.7690983037</v>
+        <v>-58869.89812155953</v>
       </c>
       <c r="C6" t="n">
-        <v>44738.04326943618</v>
+        <v>33048.91424618035</v>
       </c>
       <c r="D6" t="n">
-        <v>44738.0432694362</v>
+        <v>33048.91424618031</v>
       </c>
       <c r="E6" t="n">
-        <v>78365.6432694362</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="F6" t="n">
-        <v>78365.6432694362</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="G6" t="n">
-        <v>78365.64326943617</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="H6" t="n">
-        <v>78365.64326943617</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="I6" t="n">
-        <v>78365.64326943617</v>
+        <v>66676.5142461803</v>
       </c>
       <c r="J6" t="n">
-        <v>6600.930781349976</v>
+        <v>-5088.19824190596</v>
       </c>
       <c r="K6" t="n">
-        <v>78365.64326943617</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="L6" t="n">
-        <v>78365.6432694362</v>
+        <v>66676.51424618029</v>
       </c>
       <c r="M6" t="n">
-        <v>78365.6432694362</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="N6" t="n">
-        <v>78365.64326943614</v>
+        <v>66676.51424618029</v>
       </c>
       <c r="O6" t="n">
-        <v>78365.64326943617</v>
+        <v>66676.51424618032</v>
       </c>
       <c r="P6" t="n">
-        <v>78365.64326943617</v>
+        <v>66676.51424618032</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
@@ -34789,16 +34789,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>149.951891953036</v>
       </c>
       <c r="O3" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.9064974359549</v>
+        <v>242.9064974359548</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>201.1341951806804</v>
       </c>
       <c r="O6" t="n">
-        <v>114.2626154881444</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>81.99814951141209</v>
@@ -35193,7 +35193,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>130.4949932455015</v>
+        <v>110.4929583612564</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
         <v>200.5762321565626</v>
@@ -35667,7 +35667,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
-        <v>247.443068227201</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2838073416025</v>
+        <v>192.4911078726684</v>
       </c>
       <c r="N15" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>140.6484434930818</v>
@@ -35971,13 +35971,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2838073416025</v>
+        <v>219.9611335109387</v>
       </c>
       <c r="O18" t="n">
-        <v>212.4931427569136</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>200.5762321565626</v>
@@ -36208,16 +36208,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>134.1933268726387</v>
+        <v>60.48575168759873</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>81.99814951141209</v>
@@ -36445,19 +36445,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>212.4931427569136</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
@@ -36688,7 +36688,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
-        <v>270.5854737144654</v>
+        <v>146.2535583258988</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M29" t="n">
         <v>242.9064974359549</v>
@@ -36919,16 +36919,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O30" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L32" t="n">
         <v>204.4954085367308</v>
@@ -37089,7 +37089,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>134.1933268726387</v>
+        <v>110.4929583612564</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
+        <v>130.4949932455015</v>
+      </c>
+      <c r="N36" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N36" t="n">
-        <v>8.025953778143149</v>
-      </c>
       <c r="O36" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>200.5762321565626</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>8.025953778143093</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37642,7 +37642,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L41" t="n">
         <v>204.4954085367308</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
@@ -37870,10 +37870,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>130.4949932455015</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
         <v>200.5762321565626</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>82.55611253552989</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
@@ -38116,7 +38116,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
